--- a/Indices/qqq.xlsx
+++ b/Indices/qqq.xlsx
@@ -83,7 +83,7 @@
     <t>Alphabet Inc</t>
   </si>
   <si>
-    <t>GOOG L</t>
+    <t>GOOG</t>
   </si>
   <si>
     <t>Amazon.com Inc</t>
@@ -1167,7 +1167,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="3">
-        <v>7371</v>
+        <v>7372</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -2064,7 +2064,7 @@
         <v>102</v>
       </c>
       <c r="B46" s="3">
-        <v>8731</v>
+        <v>2836</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
